--- a/grid_static.xlsx
+++ b/grid_static.xlsx
@@ -481,22 +481,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="G2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -509,22 +509,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="G3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -537,22 +537,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>277</v>
+        <v>341</v>
       </c>
       <c r="G4" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H4" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -565,22 +565,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>400</v>
+      </c>
+      <c r="G5" t="n">
+        <v>11</v>
+      </c>
+      <c r="H5" t="n">
         <v>26</v>
-      </c>
-      <c r="F5" t="n">
-        <v>351</v>
-      </c>
-      <c r="G5" t="n">
-        <v>21</v>
-      </c>
-      <c r="H5" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -593,22 +593,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>206</v>
+        <v>251</v>
       </c>
       <c r="G6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -621,22 +621,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>141</v>
+      </c>
+      <c r="G8" t="n">
         <v>1</v>
       </c>
-      <c r="F8" t="n">
-        <v>127</v>
-      </c>
-      <c r="G8" t="n">
-        <v>12</v>
-      </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -677,22 +677,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>309</v>
+        <v>377</v>
       </c>
       <c r="D9" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E9" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F9" t="n">
-        <v>798</v>
+        <v>1416</v>
       </c>
       <c r="G9" t="n">
-        <v>362</v>
+        <v>63</v>
       </c>
       <c r="H9" t="n">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -705,22 +705,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="D10" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>361</v>
+        <v>436</v>
       </c>
       <c r="G10" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -733,22 +733,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>349</v>
+        <v>441</v>
       </c>
       <c r="D11" t="n">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E11" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F11" t="n">
-        <v>337</v>
+        <v>399</v>
       </c>
       <c r="G11" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H11" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
